--- a/ValueSet-CBSLabDiagnosticReportVS.xlsx
+++ b/ValueSet-CBSLabDiagnosticReportVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T11:18:26-04:00</t>
+    <t>2021-11-01T11:33:34-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-CBSLabDiagnosticReportVS.xlsx
+++ b/ValueSet-CBSLabDiagnosticReportVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-01T11:33:34-04:00</t>
+    <t>2021-11-03T10:06:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-CBSLabDiagnosticReportVS.xlsx
+++ b/ValueSet-CBSLabDiagnosticReportVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-03T10:06:32-04:00</t>
+    <t>2022-01-18T12:41:26-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-CBSLabDiagnosticReportVS.xlsx
+++ b/ValueSet-CBSLabDiagnosticReportVS.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-18T12:41:26-05:00</t>
+    <t>2022-01-25T10:18:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-CBSLabDiagnosticReportVS.xlsx
+++ b/ValueSet-CBSLabDiagnosticReportVS.xlsx
@@ -9,12 +9,13 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include ValueSets" r:id="rId4" sheetId="2"/>
     <sheet name="Include ValueSets 2" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from Case Based Surve" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T10:18:17-05:00</t>
+    <t>2022-02-08T17:12:45-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,6 +99,24 @@
   </si>
   <si>
     <t>http://phinvads.cdc.gov/fhir/ValueSet/2.16.840.1.114222.4.11.1002</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>lab-interpretative-report</t>
+  </si>
+  <si>
+    <t>Lab Interpretive Report</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>System URI</t>
+  </si>
+  <si>
+    <t>http://cbsig.chai.gatech.edu/CodeSystem/cbs-temp-code-system</t>
   </si>
 </sst>
 </file>
@@ -404,4 +423,53 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/ValueSet-CBSLabDiagnosticReportVS.xlsx
+++ b/ValueSet-CBSLabDiagnosticReportVS.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -59,7 +59,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T17:12:45-05:00</t>
+    <t>2022-02-17T15:59:55-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
